--- a/medicine/Enfance/Aide_internationale_pour_l'enfance/Aide_internationale_pour_l'enfance.xlsx
+++ b/medicine/Enfance/Aide_internationale_pour_l'enfance/Aide_internationale_pour_l'enfance.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Aide_internationale_pour_l%27enfance</t>
+          <t>Aide_internationale_pour_l'enfance</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Aide internationale pour l'enfance (AIPE) a été fondée en 2000 par Roxana Robin, c'est un organisme à but non lucratif de coopération internationale qui se distingue par sa mission à double volet :
 l’organisation agit pour affranchir les enfants et leur famille de la pauvreté et de l’exploitation par le travail
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Aide_internationale_pour_l%27enfance</t>
+          <t>Aide_internationale_pour_l'enfance</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,7 +526,9 @@
           <t>Son action</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Accueillir les enfants travailleurs dans des structures au sein desquelles ils peuvent s’épanouir et retrouver leur dignité,
 Proposer des programmes d’éducation et de formation professionnelle,
@@ -534,7 +548,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Aide_internationale_pour_l%27enfance</t>
+          <t>Aide_internationale_pour_l'enfance</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -552,7 +566,9 @@
           <t>Lien externe</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Site officiel
  Portail de l’humanitaire   Portail de l'enfance                    </t>
